--- a/Excels/Prefabs.xlsx
+++ b/Excels/Prefabs.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>唯一标识</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Role_1</t>
+  </si>
+  <si>
+    <t>NodeBottom</t>
   </si>
 </sst>
 </file>
@@ -749,13 +752,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1008,10 +1004,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1091,6 +1087,14 @@
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Prefabs.xlsx
+++ b/Excels/Prefabs.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>唯一标识</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>NodeBottom</t>
+  </si>
+  <si>
+    <t>NodeStars</t>
   </si>
 </sst>
 </file>
@@ -1004,10 +1007,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1095,6 +1098,14 @@
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Prefabs.xlsx
+++ b/Excels/Prefabs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="12240"/>
+    <workbookView windowWidth="21240" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>唯一标识</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>NodeStars</t>
+  </si>
+  <si>
+    <t>Combat</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +1010,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1106,6 +1109,14 @@
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Prefabs.xlsx
+++ b/Excels/Prefabs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="10560"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>唯一标识</t>
   </si>
@@ -52,16 +52,7 @@
     <t>client</t>
   </si>
   <si>
-    <t>Level_1</t>
-  </si>
-  <si>
-    <t>Level_2</t>
-  </si>
-  <si>
-    <t>Level_3</t>
-  </si>
-  <si>
-    <t>Level_4</t>
+    <t>Level</t>
   </si>
   <si>
     <t>Role_1</t>
@@ -1010,17 +1001,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1064,16 +1056,16 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>2</v>
+      <c r="A6" s="2">
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2">
-        <v>3</v>
+      <c r="A7" s="1">
+        <v>1000</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -1081,42 +1073,18 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>1001</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2">
-        <v>100</v>
+      <c r="A9" s="1">
+        <v>1002</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
-        <v>1002</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Prefabs.xlsx
+++ b/Excels/Prefabs.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>唯一标识</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Role_1</t>
+  </si>
+  <si>
+    <t>CombatSoldier</t>
   </si>
   <si>
     <t>NodeBottom</t>
@@ -1001,10 +1004,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1064,8 +1067,8 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <v>1000</v>
+      <c r="A7" s="2">
+        <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -1073,7 +1076,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -1081,10 +1084,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Prefabs.xlsx
+++ b/Excels/Prefabs.xlsx
@@ -55,7 +55,7 @@
     <t>Level</t>
   </si>
   <si>
-    <t>Role_1</t>
+    <t>Soldier</t>
   </si>
   <si>
     <t>CombatSoldier</t>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/Excels/Prefabs.xlsx
+++ b/Excels/Prefabs.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>唯一标识</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Combat</t>
+  </si>
+  <si>
+    <t>TextDamage</t>
   </si>
 </sst>
 </file>
@@ -1004,10 +1007,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1096,6 +1099,14 @@
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
